--- a/BRAS/GuestList.xlsx
+++ b/BRAS/GuestList.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t>James</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -151,6 +164,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -582,4 +599,162 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43836.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43870.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43905.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43922.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>43956.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43990.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44024.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44058.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44075.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44109.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44143.0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44177.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/BRAS/GuestList.xlsx
+++ b/BRAS/GuestList.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Dorris</t>
+          <t>Meiru</t>
         </is>
       </c>
       <c r="D4" s="9" t="n"/>

--- a/BRAS/GuestList.xlsx
+++ b/BRAS/GuestList.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Jake</t>
+          <t>John</t>
         </is>
       </c>
       <c r="D2" s="9" t="n"/>
@@ -560,7 +560,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Meiru</t>
+          <t>Dorris</t>
         </is>
       </c>
       <c r="D4" s="9" t="n"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Rothpanseth</t>
         </is>
       </c>
       <c r="D5" s="9" t="n"/>

--- a/BRAS/GuestList.xlsx
+++ b/BRAS/GuestList.xlsx
@@ -571,8 +571,10 @@
       <c r="I4" s="9" t="n"/>
     </row>
     <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" s="11" t="n">
-        <v>3</v>
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B5" s="5" t="n">
         <v>25568.70884168982</v>
